--- a/dist/document/dest/2020/10/thiet.xlsx
+++ b/dist/document/dest/2020/10/thiet.xlsx
@@ -1,37 +1,359 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Details" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="Tổng Hợp" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Chi Tiết" state="visible" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+  <si>
+    <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
+  </si>
+  <si>
+    <t>Trình Dược Viên: Thiệt</t>
+  </si>
+  <si>
+    <t>BẢNG CHIẾT KHẤU TỔNG HỢP</t>
+  </si>
+  <si>
+    <t>01/09 -&gt; 30/09/2020</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>TÊN</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>ĐƠN GIÁ</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>TCK</t>
+  </si>
+  <si>
+    <t>Cefass (Etoricoxib 90mg)</t>
+  </si>
+  <si>
+    <t>Celevox (Levofloxacin 500mg)</t>
+  </si>
+  <si>
+    <t>Celivite (Multivitamin &amp; Minerals)</t>
+  </si>
+  <si>
+    <t>Cimrinat (Clarithomycin 500mg)</t>
+  </si>
+  <si>
+    <t>Fagendol (Flunarizine 5mg)</t>
+  </si>
+  <si>
+    <t>Maxezole 40 (Esomeprazole 40mg)</t>
+  </si>
+  <si>
+    <t>Noraquick (Gabapentin 300mg)</t>
+  </si>
+  <si>
+    <t>Picencal (Calcium &amp; Vitamin D)</t>
+  </si>
+  <si>
+    <t>Sanaperol (Rabeprazol 20mg)</t>
+  </si>
+  <si>
+    <t>Zantagel (Oxethazaine, dried aluminum, magnesium)</t>
+  </si>
+  <si>
+    <t>TỔNG</t>
+  </si>
+  <si>
+    <t>File này được sinh ra bởi Yến Phạm</t>
+  </si>
+  <si>
+    <t>BẢNG CHIẾT KHẤU CHI TIẾT</t>
+  </si>
+  <si>
+    <t>TÊN THUỐC/BS</t>
+  </si>
+  <si>
+    <t>Huỳnh Hoàng</t>
+  </si>
+  <si>
+    <t>Điệp</t>
+  </si>
+  <si>
+    <t>Nguyễn Tấn</t>
+  </si>
+  <si>
+    <t>Dũng</t>
+  </si>
+  <si>
+    <t>Mã Nguyễn Minh</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Phạm Thế</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Trương Ngọc</t>
+  </si>
+  <si>
+    <t>Lễ</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn</t>
+  </si>
+  <si>
+    <t>Cường</t>
+  </si>
+  <si>
+    <t>Trương Thị Mỹ</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
+  </si>
+  <si>
+    <t>Trần Tấn</t>
+  </si>
+  <si>
+    <t>Hưng</t>
+  </si>
+  <si>
+    <t>Lê Thông</t>
+  </si>
+  <si>
+    <t>Lưu</t>
+  </si>
+  <si>
+    <t>Lê Đình Vĩnh</t>
+  </si>
+  <si>
+    <t>Phúc</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim</t>
+  </si>
+  <si>
+    <t>Uyên</t>
+  </si>
+  <si>
+    <t>Lê Đình</t>
+  </si>
+  <si>
+    <t>Tín</t>
+  </si>
+  <si>
+    <t>Lê Thị Thuý</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Đào</t>
+  </si>
+  <si>
+    <t>Bùi Kim</t>
+  </si>
+  <si>
+    <t>Dung</t>
+  </si>
+  <si>
+    <t>Bùi Bỉnh</t>
+  </si>
+  <si>
+    <t>Huân</t>
+  </si>
+  <si>
+    <t>Nguyễn văn</t>
+  </si>
+  <si>
+    <t>Trần Duy</t>
+  </si>
+  <si>
+    <t>Bùi Thị Vân</t>
+  </si>
+  <si>
+    <t>Hương</t>
+  </si>
+  <si>
+    <t>Phùng Trọng</t>
+  </si>
+  <si>
+    <t>Kiên</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị</t>
+  </si>
+  <si>
+    <t>Liễu</t>
+  </si>
+  <si>
+    <t>Đặng Văn</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Nguyễn Thuý</t>
+  </si>
+  <si>
+    <t>Nga</t>
+  </si>
+  <si>
+    <t>Nguyễn Thi</t>
+  </si>
+  <si>
+    <t>Phú</t>
+  </si>
+  <si>
+    <t>Đinh Quyết</t>
+  </si>
+  <si>
+    <t>Tâm</t>
+  </si>
+  <si>
+    <t>Phạm Võ Minh</t>
+  </si>
+  <si>
+    <t>Thắng</t>
+  </si>
+  <si>
+    <t>Nguyễn Linh</t>
+  </si>
+  <si>
+    <t>Thoại</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Trâm</t>
+  </si>
+  <si>
+    <t>Lê Hữu Quỳnh</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Phan Xuân</t>
+  </si>
+  <si>
+    <t>Trung</t>
+  </si>
+  <si>
+    <t>Trần Thị Hồng</t>
+  </si>
+  <si>
+    <t>Vân</t>
+  </si>
+  <si>
+    <t>Vũ</t>
+  </si>
+  <si>
+    <t>Lý Thanh</t>
+  </si>
+  <si>
+    <t>Lãm</t>
+  </si>
+  <si>
+    <t>Võ Hiếu</t>
+  </si>
+  <si>
+    <t>Thành</t>
+  </si>
+  <si>
+    <t>Huỳnh Thắng</t>
+  </si>
+  <si>
+    <t>Toàn</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng</t>
+  </si>
+  <si>
+    <t>Sảng</t>
+  </si>
+  <si>
+    <t>Vũ Bích Đoan</t>
+  </si>
+  <si>
+    <t>TỔNG CỘNG</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <i/>
+      <color rgb="FF7b7979"/>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFe1dbdb"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -39,19 +361,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -376,718 +752,1273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Tháng: 10/2020</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Trình dược viên: Thiệt - &lt;Điện thoại&gt; - Cty TNHH Dược Phẩm Hoàng Trân</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>TÊN</v>
-      </c>
-      <c r="B4" t="str">
-        <v>SL</v>
-      </c>
-      <c r="C4" t="str">
-        <v>ĐƠN GIÁ</v>
-      </c>
-      <c r="D4" t="str">
-        <v>TT</v>
-      </c>
-      <c r="E4" t="str">
-        <v>CK</v>
-      </c>
-      <c r="F4" t="str">
-        <v>TCK</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="1" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="22" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10">
         <v>1006</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D6" s="10">
         <v>9000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E6" s="10">
         <v>9054000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="10">
         <v>55</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G6" s="10">
         <v>4979700</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10">
         <v>86</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D7" s="10">
         <v>12000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E7" s="10">
         <v>1032000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F7" s="10">
         <v>42</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G7" s="10">
         <v>433440</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="8" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10">
         <v>840</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="10">
         <v>3000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="10">
         <v>2520000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="10">
         <v>55</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G8" s="10">
         <v>1386000</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Fagendol (Flunarizine 5mg)</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="9" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>24000</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>52</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="10">
         <v>21931</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D10" s="10">
         <v>2600</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E10" s="10">
         <v>57020600</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F10" s="10">
         <v>50</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G10" s="10">
         <v>28510300</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="11" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="10">
         <v>30</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D11" s="10">
         <v>14000</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E11" s="10">
         <v>420000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F11" s="10">
         <v>55</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G11" s="10">
         <v>231000</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Noraquick (Gabapentin 300mg)</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="12" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10">
         <v>120</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D12" s="10">
         <v>6000</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E12" s="10">
         <v>720000</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F12" s="10">
         <v>54</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G12" s="10">
         <v>388800</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="13" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>8</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10">
         <v>1220</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D13" s="10">
         <v>2900</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E13" s="10">
         <v>3538000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F13" s="10">
         <v>45</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G13" s="10">
         <v>1592100</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="14" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>9</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="10">
         <v>13777</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D14" s="10">
         <v>7900</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E14" s="10">
         <v>108838300</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F14" s="10">
         <v>53</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G14" s="10">
         <v>57684299</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="15" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10">
         <v>3431</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D15" s="10">
         <v>6926</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E15" s="10">
         <v>23763106</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F15" s="10">
         <v>40</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G15" s="10">
         <v>9505242.4</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>TỔNG</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="16" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="11">
         <v>42441</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11">
         <v>206906006</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11">
         <v>104710881.4</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>File này được sinh ra bởi Yến Phạm</v>
-      </c>
+    <row r="17" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F17"/>
-  </ignoredErrors>
+  <mergeCells count="2">
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2" right="0.2" top="0.45" bottom="0.45" header="0.2" footer="0.2"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E64"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="1" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Tháng: 10/2020</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Trình dược viên: Thiệt - &lt;Điện thoại&gt; - Cty TNHH Dược Phẩm Hoàng Trân</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>TÊN THUỐC/BS</v>
-      </c>
-      <c r="D4" t="str">
-        <v>SL</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
-      </c>
-      <c r="D5" s="1">
+    <row r="1" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" ht="22" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14">
         <v>1006</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" t="str">
-        <v>Huỳnh Hoàng</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Điệp</v>
-      </c>
-      <c r="D6" s="1">
+    <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="10">
         <v>647</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" t="str">
-        <v>Nguyễn Tấn</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Dũng</v>
-      </c>
-      <c r="D7" s="1">
+    <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="10">
         <v>60</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" t="str">
-        <v>Mã Nguyễn Minh</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Tùng</v>
-      </c>
-      <c r="D8" s="1">
+    <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10">
         <v>299</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
-      </c>
-      <c r="D9" s="1">
+    <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>2</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14">
         <v>86</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" t="str">
-        <v>Phạm Thế</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Anh</v>
-      </c>
-      <c r="D10" s="1">
+    <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="10">
         <v>86</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
-      </c>
-      <c r="D11" s="1">
+    <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14">
         <v>840</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" t="str">
-        <v>Nguyễn Tuấn</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Cường</v>
-      </c>
-      <c r="D12" s="1">
+    <row r="14" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="10">
         <v>120</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" t="str">
-        <v>Trần Tấn</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Hưng</v>
-      </c>
-      <c r="D13" s="1">
+    <row r="15" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="10">
         <v>560</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" t="str">
-        <v>Lê Đình Vĩnh</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Phúc</v>
-      </c>
-      <c r="D14" s="1">
+    <row r="17" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9">
+        <v>4</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="10">
         <v>160</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Fagendol (Flunarizine 5mg)</v>
-      </c>
-      <c r="D15" s="1">
+    <row r="19" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9">
+        <v>6</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>4</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>5</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14">
         <v>21931</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" t="str">
-        <v>Lê Thị Thuý</v>
-      </c>
-      <c r="C16" t="str">
-        <v>An</v>
-      </c>
-      <c r="D16" s="1">
+    <row r="23" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="10">
         <v>300</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" t="str">
-        <v>Nguyễn văn</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Hưng</v>
-      </c>
-      <c r="D17" s="1">
+    <row r="24" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9">
+        <v>5</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="10">
         <v>166</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" t="str">
-        <v>Trần Duy</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Hưng</v>
-      </c>
-      <c r="D18" s="1">
+    <row r="28" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9">
+        <v>6</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="10">
         <v>304</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" t="str">
-        <v>Bùi Thị Vân</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Hương</v>
-      </c>
-      <c r="D19" s="1">
+    <row r="29" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9">
+        <v>7</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="10">
         <v>2837</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" t="str">
-        <v>Nguyễn Thuý</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Nga</v>
-      </c>
-      <c r="D20" s="1">
+    <row r="30" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9">
+        <v>8</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9">
+        <v>9</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9">
+        <v>10</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9">
+        <v>11</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="10">
         <v>320</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" t="str">
-        <v>Phạm Võ Minh</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Thắng</v>
-      </c>
-      <c r="D21" s="1">
+    <row r="34" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9">
+        <v>12</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9">
+        <v>13</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9">
+        <v>14</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="10">
         <v>176</v>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" t="str">
-        <v>Nguyễn Linh</v>
-      </c>
-      <c r="C22" t="str">
-        <v>Thoại</v>
-      </c>
-      <c r="D22" s="1">
+    <row r="37" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9">
+        <v>15</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="10">
         <v>13787</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" t="str">
-        <v>Nguyễn Thị Ngọc</v>
-      </c>
-      <c r="C23" t="str">
-        <v>Trâm</v>
-      </c>
-      <c r="D23" s="1">
+    <row r="38" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9">
+        <v>16</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" t="str">
-        <v>Lê Hữu Quỳnh</v>
-      </c>
-      <c r="C24" t="str">
-        <v>Trang</v>
-      </c>
-      <c r="D24" s="1">
+    <row r="39" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9">
+        <v>17</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="10">
         <v>786</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" t="str">
-        <v>Trần Thị Hồng</v>
-      </c>
-      <c r="C25" t="str">
-        <v>Vân</v>
-      </c>
-      <c r="D25" s="1">
+    <row r="40" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9">
+        <v>18</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9">
+        <v>19</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="10">
         <v>555</v>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" t="str">
-        <v>Nguyễn Tuấn</v>
-      </c>
-      <c r="C26" t="str">
-        <v>Vũ</v>
-      </c>
-      <c r="D26" s="1">
+    <row r="42" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9">
+        <v>20</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="10">
         <v>2500</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
-      </c>
-      <c r="D27" s="1">
+    <row r="43" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>6</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14">
         <v>30</v>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" t="str">
-        <v>Trần Duy</v>
-      </c>
-      <c r="C28" t="str">
-        <v>Hưng</v>
-      </c>
-      <c r="D28" s="1">
+    <row r="44" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9">
+        <v>1</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>Noraquick (Gabapentin 300mg)</v>
-      </c>
-      <c r="D29" s="1">
+    <row r="45" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>7</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14">
         <v>120</v>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" t="str">
-        <v>Lý Thanh</v>
-      </c>
-      <c r="C30" t="str">
-        <v>Lãm</v>
-      </c>
-      <c r="D30" s="1">
+    <row r="46" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9">
+        <v>1</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="10">
         <v>120</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
-      </c>
-      <c r="D31" s="1">
+    <row r="47" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>8</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14">
         <v>1220</v>
       </c>
     </row>
-    <row r="32">
-      <c r="B32" t="str">
-        <v>Võ Hiếu</v>
-      </c>
-      <c r="C32" t="str">
-        <v>Thành</v>
-      </c>
-      <c r="D32" s="1">
+    <row r="48" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9">
+        <v>1</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="10">
         <v>650</v>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" t="str">
-        <v>Mã Nguyễn Minh</v>
-      </c>
-      <c r="C33" t="str">
-        <v>Tùng</v>
-      </c>
-      <c r="D33" s="1">
+    <row r="49" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9">
+        <v>2</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="10">
         <v>570</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
-      </c>
-      <c r="D34" s="1">
+    <row r="50" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>9</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14">
         <v>13777</v>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" t="str">
-        <v>Lý Thanh</v>
-      </c>
-      <c r="C35" t="str">
-        <v>Lãm</v>
-      </c>
-      <c r="D35" s="1">
+    <row r="51" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9">
+        <v>1</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9">
+        <v>2</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="10">
         <v>855</v>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" t="str">
-        <v>Nguyễn Linh</v>
-      </c>
-      <c r="C36" t="str">
-        <v>Thoại</v>
-      </c>
-      <c r="D36" s="1">
+    <row r="53" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9">
+        <v>3</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="10">
         <v>12342</v>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" t="str">
-        <v>Huỳnh Thắng</v>
-      </c>
-      <c r="C37" t="str">
-        <v>Toàn</v>
-      </c>
-      <c r="D37" s="1">
+    <row r="54" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9">
+        <v>4</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="10">
         <v>440</v>
       </c>
     </row>
-    <row r="38">
-      <c r="B38" t="str">
-        <v>Nguyễn Thị Ngọc</v>
-      </c>
-      <c r="C38" t="str">
-        <v>Trâm</v>
-      </c>
-      <c r="D38" s="1">
+    <row r="55" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9">
+        <v>5</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="10">
         <v>140</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
-      </c>
-      <c r="D39" s="1">
+    <row r="56" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>10</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14">
         <v>3431</v>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" t="str">
-        <v>Phùng Trọng</v>
-      </c>
-      <c r="C40" t="str">
-        <v>Kiên</v>
-      </c>
-      <c r="D40" s="1">
+    <row r="57" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9">
+        <v>1</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="10">
         <v>720</v>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" t="str">
-        <v>Nguyễn Thuý</v>
-      </c>
-      <c r="C41" t="str">
-        <v>Nga</v>
-      </c>
-      <c r="D41" s="1">
+    <row r="58" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9">
+        <v>2</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="10">
         <v>316</v>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" t="str">
-        <v>Nguyễn Đăng</v>
-      </c>
-      <c r="C42" t="str">
-        <v>Sảng</v>
-      </c>
-      <c r="D42" s="1">
+    <row r="59" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9">
+        <v>3</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="10">
         <v>2230</v>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" t="str">
-        <v>Nguyễn Thị Ngọc</v>
-      </c>
-      <c r="C43" t="str">
-        <v>Trâm</v>
-      </c>
-      <c r="D43" s="1">
+    <row r="60" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9">
+        <v>4</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="10">
         <v>165</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>TỔNG CỘNG</v>
-      </c>
-      <c r="D44" s="1">
+    <row r="61" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9">
+        <v>5</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="11">
         <v>42441</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>File này được sinh ra bởi Yến Phạm</v>
-      </c>
+    <row r="63" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A44:C44"/>
+  <mergeCells count="13">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A62:D62"/>
   </mergeCells>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D46"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/dist/document/dest/2020/10/thiet.xlsx
+++ b/dist/document/dest/2020/10/thiet.xlsx
@@ -12,18 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: Thiệt</t>
+    <t>TDV: Thiệt</t>
   </si>
   <si>
     <t>BẢNG CHIẾT KHẤU TỔNG HỢP</t>
   </si>
   <si>
-    <t>01/09 -&gt; 30/09/2020</t>
+    <t>27/10/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -56,15 +56,9 @@
     <t>Celivite (Multivitamin &amp; Minerals)</t>
   </si>
   <si>
-    <t>Cimrinat (Clarithomycin 500mg)</t>
-  </si>
-  <si>
     <t>Fagendol (Flunarizine 5mg)</t>
   </si>
   <si>
-    <t>Maxezole 40 (Esomeprazole 40mg)</t>
-  </si>
-  <si>
     <t>Noraquick (Gabapentin 300mg)</t>
   </si>
   <si>
@@ -113,24 +107,12 @@
     <t>Anh</t>
   </si>
   <si>
-    <t>Trương Ngọc</t>
-  </si>
-  <si>
-    <t>Lễ</t>
-  </si>
-  <si>
     <t>Nguyễn Tuấn</t>
   </si>
   <si>
     <t>Cường</t>
   </si>
   <si>
-    <t>Trương Thị Mỹ</t>
-  </si>
-  <si>
-    <t>Hoàng</t>
-  </si>
-  <si>
     <t>Trần Tấn</t>
   </si>
   <si>
@@ -149,45 +131,12 @@
     <t>Phúc</t>
   </si>
   <si>
-    <t>Nguyễn Thị Kim</t>
-  </si>
-  <si>
-    <t>Uyên</t>
-  </si>
-  <si>
-    <t>Lê Đình</t>
-  </si>
-  <si>
-    <t>Tín</t>
-  </si>
-  <si>
     <t>Lê Thị Thuý</t>
   </si>
   <si>
     <t>An</t>
   </si>
   <si>
-    <t>Đoàn Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Đào</t>
-  </si>
-  <si>
-    <t>Bùi Kim</t>
-  </si>
-  <si>
-    <t>Dung</t>
-  </si>
-  <si>
-    <t>Bùi Bỉnh</t>
-  </si>
-  <si>
-    <t>Huân</t>
-  </si>
-  <si>
-    <t>Nguyễn văn</t>
-  </si>
-  <si>
     <t>Trần Duy</t>
   </si>
   <si>
@@ -197,106 +146,73 @@
     <t>Hương</t>
   </si>
   <si>
+    <t>Nguyễn Thuý</t>
+  </si>
+  <si>
+    <t>Nga</t>
+  </si>
+  <si>
+    <t>Phạm Võ Minh</t>
+  </si>
+  <si>
+    <t>Thắng</t>
+  </si>
+  <si>
+    <t>Nguyễn Linh</t>
+  </si>
+  <si>
+    <t>Thoại</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Trâm</t>
+  </si>
+  <si>
+    <t>Lê Hữu Quỳnh</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Trần Thị Hồng</t>
+  </si>
+  <si>
+    <t>Vân</t>
+  </si>
+  <si>
+    <t>Vũ</t>
+  </si>
+  <si>
+    <t>Lý Thanh</t>
+  </si>
+  <si>
+    <t>Lãm</t>
+  </si>
+  <si>
+    <t>Võ Hiếu</t>
+  </si>
+  <si>
+    <t>Thành</t>
+  </si>
+  <si>
+    <t>Huỳnh Thắng</t>
+  </si>
+  <si>
+    <t>Toàn</t>
+  </si>
+  <si>
     <t>Phùng Trọng</t>
   </si>
   <si>
     <t>Kiên</t>
   </si>
   <si>
-    <t>Huỳnh Thị</t>
-  </si>
-  <si>
-    <t>Liễu</t>
-  </si>
-  <si>
-    <t>Đặng Văn</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Nguyễn Thuý</t>
-  </si>
-  <si>
-    <t>Nga</t>
-  </si>
-  <si>
-    <t>Nguyễn Thi</t>
-  </si>
-  <si>
-    <t>Phú</t>
-  </si>
-  <si>
-    <t>Đinh Quyết</t>
-  </si>
-  <si>
-    <t>Tâm</t>
-  </si>
-  <si>
-    <t>Phạm Võ Minh</t>
-  </si>
-  <si>
-    <t>Thắng</t>
-  </si>
-  <si>
-    <t>Nguyễn Linh</t>
-  </si>
-  <si>
-    <t>Thoại</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Trâm</t>
-  </si>
-  <si>
-    <t>Lê Hữu Quỳnh</t>
-  </si>
-  <si>
-    <t>Trang</t>
-  </si>
-  <si>
-    <t>Phan Xuân</t>
-  </si>
-  <si>
-    <t>Trung</t>
-  </si>
-  <si>
-    <t>Trần Thị Hồng</t>
-  </si>
-  <si>
-    <t>Vân</t>
-  </si>
-  <si>
-    <t>Vũ</t>
-  </si>
-  <si>
-    <t>Lý Thanh</t>
-  </si>
-  <si>
-    <t>Lãm</t>
-  </si>
-  <si>
-    <t>Võ Hiếu</t>
-  </si>
-  <si>
-    <t>Thành</t>
-  </si>
-  <si>
-    <t>Huỳnh Thắng</t>
-  </si>
-  <si>
-    <t>Toàn</t>
-  </si>
-  <si>
     <t>Nguyễn Đăng</t>
   </si>
   <si>
     <t>Sảng</t>
-  </si>
-  <si>
-    <t>Vũ Bích Đoan</t>
   </si>
   <si>
     <t>TỔNG CỘNG</t>
@@ -753,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -761,7 +677,7 @@
     <col min="3" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -839,19 +755,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>1006</v>
+        <v>1793</v>
       </c>
       <c r="D6" s="10">
         <v>9000</v>
       </c>
       <c r="E6" s="10">
-        <v>9054000</v>
+        <v>16137000</v>
       </c>
       <c r="F6" s="10">
         <v>55</v>
       </c>
       <c r="G6" s="10">
-        <v>4979700</v>
+        <v>8875350</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -862,19 +778,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="10">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D7" s="10">
         <v>12000</v>
       </c>
       <c r="E7" s="10">
-        <v>1032000</v>
+        <v>912000</v>
       </c>
       <c r="F7" s="10">
         <v>42</v>
       </c>
       <c r="G7" s="10">
-        <v>433440</v>
+        <v>383040</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -885,19 +801,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="10">
-        <v>840</v>
+        <v>943</v>
       </c>
       <c r="D8" s="10">
         <v>3000</v>
       </c>
       <c r="E8" s="10">
-        <v>2520000</v>
+        <v>2829000</v>
       </c>
       <c r="F8" s="10">
         <v>55</v>
       </c>
       <c r="G8" s="10">
-        <v>1386000</v>
+        <v>1555950</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -908,19 +824,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="10">
-        <v>0</v>
+        <v>23479</v>
       </c>
       <c r="D9" s="10">
-        <v>24000</v>
+        <v>2600</v>
       </c>
       <c r="E9" s="10">
-        <v>0</v>
+        <v>61045400</v>
       </c>
       <c r="F9" s="10">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="10">
-        <v>0</v>
+        <v>30522700</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -931,19 +847,19 @@
         <v>15</v>
       </c>
       <c r="C10" s="10">
-        <v>21931</v>
+        <v>195</v>
       </c>
       <c r="D10" s="10">
-        <v>2600</v>
+        <v>6000</v>
       </c>
       <c r="E10" s="10">
-        <v>57020600</v>
+        <v>1170000</v>
       </c>
       <c r="F10" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G10" s="10">
-        <v>28510300</v>
+        <v>631800</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -954,19 +870,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="10">
-        <v>30</v>
+        <v>1154</v>
       </c>
       <c r="D11" s="10">
-        <v>14000</v>
+        <v>2900</v>
       </c>
       <c r="E11" s="10">
-        <v>420000</v>
+        <v>3346600</v>
       </c>
       <c r="F11" s="10">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G11" s="10">
-        <v>231000</v>
+        <v>1505970</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -977,19 +893,19 @@
         <v>17</v>
       </c>
       <c r="C12" s="10">
-        <v>120</v>
+        <v>10769</v>
       </c>
       <c r="D12" s="10">
-        <v>6000</v>
+        <v>7900</v>
       </c>
       <c r="E12" s="10">
-        <v>720000</v>
+        <v>85075100</v>
       </c>
       <c r="F12" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="10">
-        <v>388800</v>
+        <v>45089803</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1000,100 +916,54 @@
         <v>18</v>
       </c>
       <c r="C13" s="10">
-        <v>1220</v>
+        <v>1951</v>
       </c>
       <c r="D13" s="10">
-        <v>2900</v>
+        <v>6926</v>
       </c>
       <c r="E13" s="10">
-        <v>3538000</v>
+        <v>13512626</v>
       </c>
       <c r="F13" s="10">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G13" s="10">
-        <v>1592100</v>
-      </c>
-    </row>
-    <row r="14" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>9</v>
-      </c>
-      <c r="B14" s="9" t="s">
+        <v>5405050.4</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="10">
-        <v>13777</v>
-      </c>
-      <c r="D14" s="10">
-        <v>7900</v>
-      </c>
-      <c r="E14" s="10">
-        <v>108838300</v>
-      </c>
-      <c r="F14" s="10">
-        <v>53</v>
-      </c>
-      <c r="G14" s="10">
-        <v>57684299</v>
-      </c>
-    </row>
-    <row r="15" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>10</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="11">
+        <v>40360</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11">
+        <v>184027726</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
+        <v>93969663.4</v>
+      </c>
+    </row>
+    <row r="15" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="10">
-        <v>3431</v>
-      </c>
-      <c r="D15" s="10">
-        <v>6926</v>
-      </c>
-      <c r="E15" s="10">
-        <v>23763106</v>
-      </c>
-      <c r="F15" s="10">
-        <v>40</v>
-      </c>
-      <c r="G15" s="10">
-        <v>9505242.4</v>
-      </c>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="11">
-        <v>42441</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11">
-        <v>206906006</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11">
-        <v>104710881.4</v>
-      </c>
-    </row>
-    <row r="17" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.45" bottom="0.45" header="0.2" footer="0.2"/>
@@ -1103,7 +973,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E45"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="5" customWidth="1"/>
@@ -1132,7 +1002,7 @@
     </row>
     <row r="3" ht="22" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1153,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1171,7 +1041,7 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14">
-        <v>1006</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1180,13 +1050,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="10">
-        <v>647</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1195,13 +1065,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="10">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1210,13 +1080,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="10">
-        <v>299</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1229,7 +1099,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1238,785 +1108,502 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="10">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14">
-        <v>840</v>
+      <c r="E13" s="10">
+        <v>60</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="10">
-        <v>120</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="10">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" s="10">
-        <v>560</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9">
+      <c r="A17" s="13">
         <v>4</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
+      <c r="B17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14">
+        <v>23479</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E18" s="10">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E19" s="10">
-        <v>0</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>4</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14">
-        <v>0</v>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1237</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="10">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9">
+        <v>5</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>5</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14">
-        <v>21931</v>
+      <c r="E22" s="10">
+        <v>449</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="E23" s="10">
-        <v>300</v>
+        <v>17527</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="E24" s="10">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="E25" s="10">
-        <v>0</v>
+        <v>940</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="E26" s="10">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9">
+        <v>10</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="28" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <v>5</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="10">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9">
-        <v>6</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="10">
-        <v>304</v>
+      <c r="B28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14">
+        <v>195</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E29" s="10">
-        <v>2837</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9">
-        <v>8</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0</v>
+      <c r="A30" s="13">
+        <v>6</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14">
+        <v>1154</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E31" s="10">
-        <v>0</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E32" s="10">
-        <v>0</v>
+        <v>719</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9">
-        <v>11</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="10">
-        <v>320</v>
+      <c r="A33" s="13">
+        <v>7</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14">
+        <v>10769</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E34" s="10">
-        <v>0</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E35" s="10">
-        <v>0</v>
+        <v>9678</v>
       </c>
     </row>
     <row r="36" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E36" s="10">
-        <v>176</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E37" s="10">
-        <v>13787</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9">
-        <v>16</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="10">
-        <v>200</v>
+      <c r="A38" s="13">
+        <v>8</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14">
+        <v>1951</v>
       </c>
     </row>
     <row r="39" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E39" s="10">
-        <v>786</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="E40" s="10">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E41" s="10">
-        <v>555</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="42" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9">
+        <v>4</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="10">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="11">
+        <v>40360</v>
+      </c>
+    </row>
+    <row r="44" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="10">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="43" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <v>6</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9">
-        <v>1</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>7</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9">
-        <v>1</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="10">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <v>8</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="48" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9">
-        <v>1</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" s="10">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="49" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9">
-        <v>2</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="10">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="50" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
-        <v>9</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14">
-        <v>13777</v>
-      </c>
-    </row>
-    <row r="51" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9">
-        <v>1</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9">
-        <v>2</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="10">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="53" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9">
-        <v>3</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="10">
-        <v>12342</v>
-      </c>
-    </row>
-    <row r="54" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9">
-        <v>4</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="10">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="55" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9">
-        <v>5</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" s="10">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
-        <v>10</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14">
-        <v>3431</v>
-      </c>
-    </row>
-    <row r="57" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9">
-        <v>1</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="10">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="58" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9">
-        <v>2</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="10">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="59" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9">
-        <v>3</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E59" s="10">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="60" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9">
-        <v>4</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="10">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9">
-        <v>5</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="11">
-        <v>42441</v>
-      </c>
-    </row>
-    <row r="63" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="11">
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
